--- a/Pruebas de escritorio de la base de datos.xlsx
+++ b/Pruebas de escritorio de la base de datos.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melky\Desktop\Trabajos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5820"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>categorias</t>
   </si>
@@ -59,9 +59,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>modelo</t>
-  </si>
-  <si>
     <t>idproducto</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>telefono</t>
   </si>
   <si>
-    <t>fax</t>
-  </si>
-  <si>
     <t>articulos</t>
   </si>
   <si>
@@ -99,16 +93,129 @@
   </si>
   <si>
     <t>cantidad</t>
+  </si>
+  <si>
+    <t>fabricante</t>
+  </si>
+  <si>
+    <t>idinventario</t>
+  </si>
+  <si>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>fecha_hora</t>
+  </si>
+  <si>
+    <t>idusuario</t>
+  </si>
+  <si>
+    <t>usuarios</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>idrol</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>clientes</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>abono</t>
+  </si>
+  <si>
+    <t>Semilla</t>
+  </si>
+  <si>
+    <t>concentrado</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>vendedor</t>
+  </si>
+  <si>
+    <t>La soya</t>
+  </si>
+  <si>
+    <t>10-052021</t>
+  </si>
+  <si>
+    <t>10-052022</t>
+  </si>
+  <si>
+    <t>10-052023</t>
+  </si>
+  <si>
+    <t>10-052024</t>
+  </si>
+  <si>
+    <t>10-052025</t>
+  </si>
+  <si>
+    <t>10-052026</t>
+  </si>
+  <si>
+    <t>10-052027</t>
+  </si>
+  <si>
+    <t>10-052028</t>
+  </si>
+  <si>
+    <t>10-052029</t>
+  </si>
+  <si>
+    <t>10-052030</t>
+  </si>
+  <si>
+    <t>10-052031</t>
+  </si>
+  <si>
+    <t>10-052032</t>
+  </si>
+  <si>
+    <t>Consentrado para pollos</t>
+  </si>
+  <si>
+    <t>Agropollo</t>
+  </si>
+  <si>
+    <t>8789-0998</t>
+  </si>
+  <si>
+    <t>El calvario, Chalatenango</t>
+  </si>
+  <si>
+    <t>soya.sv@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -146,8 +253,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -155,23 +303,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,185 +616,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AK15"/>
+  <dimension ref="B2:BQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI4" sqref="BI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" customWidth="1"/>
+    <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="2.7109375" customWidth="1"/>
+    <col min="49" max="49" width="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="2.85546875" customWidth="1"/>
+    <col min="60" max="60" width="4.28515625" customWidth="1"/>
+    <col min="61" max="61" width="8" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="3" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="4.28515625" customWidth="1"/>
+    <col min="72" max="72" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="R2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+      <c r="BP2" s="5"/>
+      <c r="BQ2" s="5"/>
+    </row>
+    <row r="3" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="X2" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="6"/>
+      <c r="X3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AG2" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="AK3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
+    <row r="4" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="1">
+        <v>35.5</v>
+      </c>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="6"/>
       <c r="X4" s="1">
         <v>1</v>
       </c>
@@ -642,39 +986,86 @@
       <c r="AG4" s="1">
         <v>1</v>
       </c>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
+      <c r="AH4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK4" s="1">
+        <f>AI4*AJ4</f>
+        <v>710</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AW4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="D5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="J5" s="1">
+      <c r="I5" s="1"/>
+      <c r="K5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="Q5" s="1">
+      <c r="P5" s="1"/>
+      <c r="R5" s="1">
         <v>2</v>
       </c>
-      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
+      <c r="W5" s="6"/>
       <c r="X5" s="1">
         <v>2</v>
       </c>
@@ -688,39 +1079,75 @@
       <c r="AG5" s="1">
         <v>2</v>
       </c>
-      <c r="AH5" s="1"/>
+      <c r="AH5" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AO5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AW5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BC5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="D6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="J6" s="1">
+      <c r="I6" s="1"/>
+      <c r="K6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="Q6" s="1">
+      <c r="P6" s="1"/>
+      <c r="R6" s="1">
         <v>3</v>
       </c>
-      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
+      <c r="W6" s="6"/>
       <c r="X6" s="1">
         <v>3</v>
       </c>
@@ -734,39 +1161,71 @@
       <c r="AG6" s="1">
         <v>3</v>
       </c>
-      <c r="AH6" s="1"/>
+      <c r="AH6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AO6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AW6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BC6" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BH6" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="D7" s="1">
+      <c r="C7" s="1"/>
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="1">
+      <c r="I7" s="1"/>
+      <c r="K7" s="1">
         <v>4</v>
       </c>
-      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="Q7" s="1">
+      <c r="P7" s="1"/>
+      <c r="R7" s="1">
         <v>4</v>
       </c>
-      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
+      <c r="W7" s="6"/>
       <c r="X7" s="1">
         <v>4</v>
       </c>
@@ -780,39 +1239,71 @@
       <c r="AG7" s="1">
         <v>4</v>
       </c>
-      <c r="AH7" s="1"/>
+      <c r="AH7" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AO7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AW7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BC7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BH7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="D8" s="1">
+      <c r="C8" s="1"/>
+      <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="1">
+      <c r="I8" s="1"/>
+      <c r="K8" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="Q8" s="1">
+      <c r="P8" s="1"/>
+      <c r="R8" s="1">
         <v>5</v>
       </c>
-      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
+      <c r="W8" s="6"/>
       <c r="X8" s="1">
         <v>5</v>
       </c>
@@ -826,39 +1317,71 @@
       <c r="AG8" s="1">
         <v>5</v>
       </c>
-      <c r="AH8" s="1"/>
+      <c r="AH8" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AO8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AW8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BC8" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BH8" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1">
+      <c r="C9" s="1"/>
+      <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="J9" s="1">
+      <c r="I9" s="1"/>
+      <c r="K9" s="1">
         <v>6</v>
       </c>
-      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="Q9" s="1">
+      <c r="P9" s="1"/>
+      <c r="R9" s="1">
         <v>6</v>
       </c>
-      <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
+      <c r="W9" s="6"/>
       <c r="X9" s="1">
         <v>6</v>
       </c>
@@ -872,39 +1395,71 @@
       <c r="AG9" s="1">
         <v>6</v>
       </c>
-      <c r="AH9" s="1"/>
+      <c r="AH9" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AO9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AW9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BC9" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BH9" s="1">
+        <v>6</v>
+      </c>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="D10" s="1">
+      <c r="C10" s="1"/>
+      <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="J10" s="1">
+      <c r="I10" s="1"/>
+      <c r="K10" s="1">
         <v>7</v>
       </c>
-      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="Q10" s="1">
+      <c r="P10" s="1"/>
+      <c r="R10" s="1">
         <v>7</v>
       </c>
-      <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
+      <c r="W10" s="6"/>
       <c r="X10" s="1">
         <v>7</v>
       </c>
@@ -918,39 +1473,71 @@
       <c r="AG10" s="1">
         <v>7</v>
       </c>
-      <c r="AH10" s="1"/>
+      <c r="AH10" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AO10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AW10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BC10" s="1">
+        <v>7</v>
+      </c>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BH10" s="1">
+        <v>7</v>
+      </c>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1">
+      <c r="C11" s="1"/>
+      <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="J11" s="1">
+      <c r="I11" s="1"/>
+      <c r="K11" s="1">
         <v>8</v>
       </c>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="Q11" s="1">
+      <c r="P11" s="1"/>
+      <c r="R11" s="1">
         <v>8</v>
       </c>
-      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
+      <c r="W11" s="6"/>
       <c r="X11" s="1">
         <v>8</v>
       </c>
@@ -964,32 +1551,74 @@
       <c r="AG11" s="1">
         <v>8</v>
       </c>
-      <c r="AH11" s="1"/>
+      <c r="AH11" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AO11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AW11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BC11" s="1">
+        <v>8</v>
+      </c>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BH11" s="1">
+        <v>8</v>
+      </c>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="12" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1">
+        <v>9</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="K12" s="1">
+        <v>9</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="R12" s="1">
+        <v>9</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="X12" s="1"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="1">
+        <v>9</v>
+      </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
@@ -997,33 +1626,76 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
+      <c r="AG12" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AO12" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AW12" s="1">
+        <v>9</v>
+      </c>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BC12" s="1">
+        <v>9</v>
+      </c>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BH12" s="1">
+        <v>9</v>
+      </c>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="K13" s="1">
+        <v>10</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="R13" s="1">
+        <v>10</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="X13" s="1"/>
+      <c r="X13" s="1">
+        <v>10</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
@@ -1031,14 +1703,76 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
+      <c r="AG13" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AO13" s="1">
+        <v>10</v>
+      </c>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AW13" s="1">
+        <v>10</v>
+      </c>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BC13" s="1">
+        <v>10</v>
+      </c>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BH13" s="1">
+        <v>10</v>
+      </c>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="X14" s="1"/>
+    <row r="14" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="K14" s="1">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="R14" s="1">
+        <v>11</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="X14" s="1">
+        <v>11</v>
+      </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
@@ -1046,14 +1780,76 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
+      <c r="AG14" s="1">
+        <v>11</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AO14" s="1">
+        <v>11</v>
+      </c>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AW14" s="1">
+        <v>11</v>
+      </c>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BC14" s="1">
+        <v>11</v>
+      </c>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BH14" s="1">
+        <v>11</v>
+      </c>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="X15" s="1"/>
+    <row r="15" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" s="1">
+        <v>12</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="R15" s="1">
+        <v>12</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="X15" s="1">
+        <v>12</v>
+      </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
@@ -1061,20 +1857,64 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
+      <c r="AG15" s="1">
+        <v>12</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AO15" s="1">
+        <v>12</v>
+      </c>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AW15" s="1">
+        <v>12</v>
+      </c>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BC15" s="1">
+        <v>12</v>
+      </c>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BH15" s="1">
+        <v>12</v>
+      </c>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+    </row>
+    <row r="16" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="AH16" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:H2"/>
+  <mergeCells count="9">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="BH2:BK2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="R2:V2"/>
     <mergeCell ref="X2:AE2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="AG2:AM2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="T4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pruebas de escritorio de la base de datos.xlsx
+++ b/Pruebas de escritorio de la base de datos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>categorias</t>
   </si>
@@ -198,6 +198,21 @@
   </si>
   <si>
     <t>soya.sv@gmail.com</t>
+  </si>
+  <si>
+    <t>pesticida</t>
+  </si>
+  <si>
+    <t>Consentrado para cerdos</t>
+  </si>
+  <si>
+    <t>detalle_ventas</t>
+  </si>
+  <si>
+    <t>idventa</t>
+  </si>
+  <si>
+    <t>idarticulo</t>
   </si>
 </sst>
 </file>
@@ -307,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -316,13 +331,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,8 +349,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -616,16 +636,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BQ16"/>
+  <dimension ref="B2:BV16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI4" sqref="BI4"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BA9" sqref="BA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -641,7 +662,7 @@
     <col min="23" max="23" width="4.28515625" customWidth="1"/>
     <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="3" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -650,21 +671,25 @@
     <col min="37" max="37" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="2.7109375" customWidth="1"/>
-    <col min="49" max="49" width="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2.85546875" customWidth="1"/>
+    <col min="48" max="48" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="3" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="7" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="2.85546875" customWidth="1"/>
+    <col min="54" max="54" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="4.28515625" customWidth="1"/>
-    <col min="61" max="61" width="8" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="3" bestFit="1" customWidth="1"/>
@@ -676,45 +701,45 @@
     <col min="73" max="73" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="R2" s="12" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="R2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="12" t="s">
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="5"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="4"/>
       <c r="AG2" s="9" t="s">
         <v>20</v>
       </c>
@@ -724,7 +749,7 @@
       <c r="AK2" s="10"/>
       <c r="AL2" s="10"/>
       <c r="AM2" s="11"/>
-      <c r="AN2" s="5"/>
+      <c r="AN2" s="4"/>
       <c r="AO2" s="9" t="s">
         <v>25</v>
       </c>
@@ -732,38 +757,43 @@
       <c r="AQ2" s="10"/>
       <c r="AR2" s="10"/>
       <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="9" t="s">
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="12"/>
+      <c r="BC2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4" t="s">
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="9" t="s">
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="11"/>
+      <c r="BN2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="BI2" s="10"/>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
     </row>
-    <row r="3" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -818,7 +848,7 @@
       <c r="V3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="6"/>
+      <c r="W3" s="5"/>
       <c r="X3" s="2" t="s">
         <v>1</v>
       </c>
@@ -864,68 +894,82 @@
       <c r="AM3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AO3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="7" t="s">
+      <c r="AO3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="AY3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA3" s="13"/>
+      <c r="BC3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AU3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AZ3" s="7" t="s">
+      <c r="BG3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BA3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BN3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="BE3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BP3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BH3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="BK3" s="7" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="4" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -963,7 +1007,7 @@
       <c r="S4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>57</v>
       </c>
       <c r="U4" s="1" t="s">
@@ -972,7 +1016,7 @@
       <c r="V4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="6"/>
+      <c r="W4" s="5"/>
       <c r="X4" s="1">
         <v>1</v>
       </c>
@@ -1009,34 +1053,44 @@
         <v>1</v>
       </c>
       <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
+      <c r="AQ4" s="1">
+        <v>10</v>
+      </c>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AW4" s="1">
-        <v>1</v>
-      </c>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
+      <c r="BA4" s="5"/>
       <c r="BC4" s="1">
         <v>1</v>
       </c>
-      <c r="BD4" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
-      <c r="BH4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
     </row>
-    <row r="5" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1053,7 +1107,9 @@
       <c r="K5" s="1">
         <v>2</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1065,7 +1121,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="6"/>
+      <c r="W5" s="5"/>
       <c r="X5" s="1">
         <v>2</v>
       </c>
@@ -1082,10 +1138,19 @@
       <c r="AH5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
+      <c r="AI5" s="1">
+        <v>25.75</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" ref="AK5:AK15" si="0">AI5*AJ5</f>
+        <v>257.5</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>2</v>
+      </c>
       <c r="AM5" s="1"/>
       <c r="AO5" s="1">
         <v>2</v>
@@ -1095,30 +1160,38 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AW5" s="1">
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="1">
         <v>2</v>
       </c>
+      <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
+      <c r="BA5" s="5"/>
       <c r="BC5" s="1">
         <v>2</v>
       </c>
-      <c r="BD5" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
-      <c r="BH5" s="1">
+      <c r="BG5" s="1"/>
+      <c r="BI5" s="1">
         <v>2</v>
       </c>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
+      <c r="BJ5" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BN5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
     </row>
-    <row r="6" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1147,7 +1220,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="6"/>
+      <c r="W6" s="5"/>
       <c r="X6" s="1">
         <v>3</v>
       </c>
@@ -1166,8 +1239,13 @@
       </c>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
+      <c r="AK6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>3</v>
+      </c>
       <c r="AM6" s="1"/>
       <c r="AO6" s="1">
         <v>3</v>
@@ -1177,32 +1255,42 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AW6" s="1">
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="1">
         <v>3</v>
       </c>
+      <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
+      <c r="BA6" s="5"/>
       <c r="BC6" s="1">
         <v>3</v>
       </c>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
-      <c r="BH6" s="1">
+      <c r="BG6" s="1"/>
+      <c r="BI6" s="1">
         <v>3</v>
       </c>
-      <c r="BI6" s="1"/>
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BN6" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
     </row>
-    <row r="7" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
@@ -1225,7 +1313,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="6"/>
+      <c r="W7" s="5"/>
       <c r="X7" s="1">
         <v>4</v>
       </c>
@@ -1244,7 +1332,10 @@
       </c>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
+      <c r="AK7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AO7" s="1">
@@ -1255,28 +1346,36 @@
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AW7" s="1">
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="1">
         <v>4</v>
       </c>
+      <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
+      <c r="BA7" s="5"/>
       <c r="BC7" s="1">
         <v>4</v>
       </c>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
-      <c r="BH7" s="1">
+      <c r="BG7" s="1"/>
+      <c r="BI7" s="1">
         <v>4</v>
       </c>
-      <c r="BI7" s="1"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BN7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
     </row>
-    <row r="8" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1303,7 +1402,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="6"/>
+      <c r="W8" s="5"/>
       <c r="X8" s="1">
         <v>5</v>
       </c>
@@ -1322,7 +1421,10 @@
       </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
+      <c r="AK8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
       <c r="AO8" s="1">
@@ -1333,28 +1435,36 @@
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AW8" s="1">
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="1">
         <v>5</v>
       </c>
+      <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
-      <c r="BA8" s="1"/>
+      <c r="BA8" s="5"/>
       <c r="BC8" s="1">
         <v>5</v>
       </c>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
-      <c r="BH8" s="1">
+      <c r="BG8" s="1"/>
+      <c r="BI8" s="1">
         <v>5</v>
       </c>
-      <c r="BI8" s="1"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BN8" s="1">
+        <v>5</v>
+      </c>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
     </row>
-    <row r="9" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1381,7 +1491,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="6"/>
+      <c r="W9" s="5"/>
       <c r="X9" s="1">
         <v>6</v>
       </c>
@@ -1400,7 +1510,10 @@
       </c>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
+      <c r="AK9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
       <c r="AO9" s="1">
@@ -1411,28 +1524,36 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AW9" s="1">
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="1">
         <v>6</v>
       </c>
+      <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
+      <c r="BA9" s="5"/>
       <c r="BC9" s="1">
         <v>6</v>
       </c>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
-      <c r="BH9" s="1">
+      <c r="BG9" s="1"/>
+      <c r="BI9" s="1">
         <v>6</v>
       </c>
-      <c r="BI9" s="1"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BN9" s="1">
+        <v>6</v>
+      </c>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
     </row>
-    <row r="10" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1459,7 +1580,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="6"/>
+      <c r="W10" s="5"/>
       <c r="X10" s="1">
         <v>7</v>
       </c>
@@ -1478,7 +1599,10 @@
       </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
+      <c r="AK10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
       <c r="AO10" s="1">
@@ -1489,28 +1613,36 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AW10" s="1">
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="1">
         <v>7</v>
       </c>
+      <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
+      <c r="BA10" s="5"/>
       <c r="BC10" s="1">
         <v>7</v>
       </c>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
-      <c r="BH10" s="1">
+      <c r="BG10" s="1"/>
+      <c r="BI10" s="1">
         <v>7</v>
       </c>
-      <c r="BI10" s="1"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BN10" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
     </row>
-    <row r="11" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1537,7 +1669,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="6"/>
+      <c r="W11" s="5"/>
       <c r="X11" s="1">
         <v>8</v>
       </c>
@@ -1556,7 +1688,10 @@
       </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
+      <c r="AK11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
       <c r="AO11" s="1">
@@ -1567,28 +1702,36 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AW11" s="1">
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="1">
         <v>8</v>
       </c>
+      <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
+      <c r="BA11" s="5"/>
       <c r="BC11" s="1">
         <v>8</v>
       </c>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
-      <c r="BH11" s="1">
+      <c r="BG11" s="1"/>
+      <c r="BI11" s="1">
         <v>8</v>
       </c>
-      <c r="BI11" s="1"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BN11" s="1">
+        <v>8</v>
+      </c>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
     </row>
-    <row r="12" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1615,7 +1758,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="6"/>
+      <c r="W12" s="5"/>
       <c r="X12" s="1">
         <v>9</v>
       </c>
@@ -1634,7 +1777,10 @@
       </c>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
+      <c r="AK12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
       <c r="AO12" s="1">
@@ -1645,28 +1791,36 @@
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AW12" s="1">
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="1">
         <v>9</v>
       </c>
+      <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
+      <c r="BA12" s="5"/>
       <c r="BC12" s="1">
         <v>9</v>
       </c>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
-      <c r="BH12" s="1">
+      <c r="BG12" s="1"/>
+      <c r="BI12" s="1">
         <v>9</v>
       </c>
-      <c r="BI12" s="1"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BN12" s="1">
+        <v>9</v>
+      </c>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
     </row>
-    <row r="13" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -1711,7 +1865,10 @@
       </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
+      <c r="AK13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
       <c r="AO13" s="1">
@@ -1722,28 +1879,36 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AW13" s="1">
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="1">
         <v>10</v>
       </c>
+      <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
+      <c r="BA13" s="5"/>
       <c r="BC13" s="1">
         <v>10</v>
       </c>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
-      <c r="BH13" s="1">
+      <c r="BG13" s="1"/>
+      <c r="BI13" s="1">
         <v>10</v>
       </c>
-      <c r="BI13" s="1"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BN13" s="1">
+        <v>10</v>
+      </c>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
     </row>
-    <row r="14" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -1788,7 +1953,10 @@
       </c>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
+      <c r="AK14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
       <c r="AO14" s="1">
@@ -1799,28 +1967,36 @@
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AW14" s="1">
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="1">
         <v>11</v>
       </c>
+      <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
+      <c r="BA14" s="5"/>
       <c r="BC14" s="1">
         <v>11</v>
       </c>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
-      <c r="BH14" s="1">
+      <c r="BG14" s="1"/>
+      <c r="BI14" s="1">
         <v>11</v>
       </c>
-      <c r="BI14" s="1"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BN14" s="1">
+        <v>11</v>
+      </c>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
     </row>
-    <row r="15" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -1865,7 +2041,10 @@
       </c>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
+      <c r="AK15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AO15" s="1">
@@ -1876,41 +2055,51 @@
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AW15" s="1">
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="1">
         <v>12</v>
       </c>
+      <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
+      <c r="BA15" s="5"/>
       <c r="BC15" s="1">
         <v>12</v>
       </c>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
-      <c r="BH15" s="1">
+      <c r="BG15" s="1"/>
+      <c r="BI15" s="1">
         <v>12</v>
       </c>
-      <c r="BI15" s="1"/>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BN15" s="1">
+        <v>12</v>
+      </c>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
     </row>
-    <row r="16" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="AH16" s="6"/>
+    <row r="16" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="AH16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="BN2:BQ2"/>
+    <mergeCell ref="BI2:BL2"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="BH2:BK2"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="X2:AE2"/>
     <mergeCell ref="AG2:AM2"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="AO2:AT2"/>
+    <mergeCell ref="AV2:AZ2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T4" r:id="rId1"/>

--- a/Pruebas de escritorio de la base de datos.xlsx
+++ b/Pruebas de escritorio de la base de datos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="199">
   <si>
     <t>categorias</t>
   </si>
@@ -74,15 +74,6 @@
     <t>telefono</t>
   </si>
   <si>
-    <t>articulos</t>
-  </si>
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>precio_venta</t>
-  </si>
-  <si>
     <t>estado</t>
   </si>
   <si>
@@ -131,81 +122,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>abono</t>
-  </si>
-  <si>
-    <t>Semilla</t>
-  </si>
-  <si>
-    <t>concentrado</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>vendedor</t>
-  </si>
-  <si>
-    <t>La soya</t>
-  </si>
-  <si>
-    <t>10-052021</t>
-  </si>
-  <si>
-    <t>10-052022</t>
-  </si>
-  <si>
-    <t>10-052023</t>
-  </si>
-  <si>
-    <t>10-052024</t>
-  </si>
-  <si>
-    <t>10-052025</t>
-  </si>
-  <si>
-    <t>10-052026</t>
-  </si>
-  <si>
-    <t>10-052027</t>
-  </si>
-  <si>
-    <t>10-052028</t>
-  </si>
-  <si>
-    <t>10-052029</t>
-  </si>
-  <si>
-    <t>10-052030</t>
-  </si>
-  <si>
-    <t>10-052031</t>
-  </si>
-  <si>
-    <t>10-052032</t>
-  </si>
-  <si>
-    <t>Consentrado para pollos</t>
-  </si>
-  <si>
-    <t>Agropollo</t>
-  </si>
-  <si>
-    <t>8789-0998</t>
-  </si>
-  <si>
-    <t>El calvario, Chalatenango</t>
-  </si>
-  <si>
-    <t>soya.sv@gmail.com</t>
-  </si>
-  <si>
-    <t>pesticida</t>
-  </si>
-  <si>
-    <t>Consentrado para cerdos</t>
-  </si>
-  <si>
     <t>detalle_ventas</t>
   </si>
   <si>
@@ -213,6 +129,498 @@
   </si>
   <si>
     <t>idarticulo</t>
+  </si>
+  <si>
+    <t>Herbicida</t>
+  </si>
+  <si>
+    <t>Funqicidas</t>
+  </si>
+  <si>
+    <t>Adherente</t>
+  </si>
+  <si>
+    <t>Insecticida</t>
+  </si>
+  <si>
+    <t>Tratadores de semilla</t>
+  </si>
+  <si>
+    <t>Concentrados de pollo</t>
+  </si>
+  <si>
+    <t>Concentrados de Borinos</t>
+  </si>
+  <si>
+    <t>Comida para perro</t>
+  </si>
+  <si>
+    <t>Comida para gato</t>
+  </si>
+  <si>
+    <t>Fertilizantes</t>
+  </si>
+  <si>
+    <t>Bomba de Mochila</t>
+  </si>
+  <si>
+    <t>Semillas</t>
+  </si>
+  <si>
+    <t>Unidad de medida</t>
+  </si>
+  <si>
+    <t>Paraquat</t>
+  </si>
+  <si>
+    <t>Rafaga</t>
+  </si>
+  <si>
+    <t>Elimina</t>
+  </si>
+  <si>
+    <t>Glifosato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comander </t>
+  </si>
+  <si>
+    <t>Pante k</t>
+  </si>
+  <si>
+    <t>Root Out</t>
+  </si>
+  <si>
+    <t>Glifosato Aleman</t>
+  </si>
+  <si>
+    <t>Tronador</t>
+  </si>
+  <si>
+    <t>Pastura</t>
+  </si>
+  <si>
+    <t>Foram</t>
+  </si>
+  <si>
+    <t>Insuron</t>
+  </si>
+  <si>
+    <t>Espula</t>
+  </si>
+  <si>
+    <t>Bufalo</t>
+  </si>
+  <si>
+    <t>Combatran XT</t>
+  </si>
+  <si>
+    <t>Daga</t>
+  </si>
+  <si>
+    <t>Escolta</t>
+  </si>
+  <si>
+    <t>Dupla</t>
+  </si>
+  <si>
+    <t>Atrasina</t>
+  </si>
+  <si>
+    <t>Ilustre</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Diuron</t>
+  </si>
+  <si>
+    <t>Foliares</t>
+  </si>
+  <si>
+    <t>Albamin</t>
+  </si>
+  <si>
+    <t>Bayfolan Forte</t>
+  </si>
+  <si>
+    <t>Foliper</t>
+  </si>
+  <si>
+    <t>Nitro Xtend</t>
+  </si>
+  <si>
+    <t>Alifol</t>
+  </si>
+  <si>
+    <t>Calcio boro</t>
+  </si>
+  <si>
+    <t>Promet Rine</t>
+  </si>
+  <si>
+    <t>Promet Cobre</t>
+  </si>
+  <si>
+    <t>Bora mide</t>
+  </si>
+  <si>
+    <t>Agro fol</t>
+  </si>
+  <si>
+    <t>Newfolan</t>
+  </si>
+  <si>
+    <t>Stimu-Plus</t>
+  </si>
+  <si>
+    <t>New fol F</t>
+  </si>
+  <si>
+    <t>Micronutrientes Nlix</t>
+  </si>
+  <si>
+    <t>Potasio Polvo</t>
+  </si>
+  <si>
+    <t>20-20-20</t>
+  </si>
+  <si>
+    <t>X-CYTE</t>
+  </si>
+  <si>
+    <t>Biocarben</t>
+  </si>
+  <si>
+    <t>biomil</t>
+  </si>
+  <si>
+    <t>Nucilate</t>
+  </si>
+  <si>
+    <t>idunidadmedida</t>
+  </si>
+  <si>
+    <t>1 Litro</t>
+  </si>
+  <si>
+    <t>Hachero</t>
+  </si>
+  <si>
+    <t>M41-007</t>
+  </si>
+  <si>
+    <t>Biolife</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Cuarto</t>
+  </si>
+  <si>
+    <t>Vertigo</t>
+  </si>
+  <si>
+    <t>Amistar</t>
+  </si>
+  <si>
+    <t>Nativo</t>
+  </si>
+  <si>
+    <t>Funqistar-top</t>
+  </si>
+  <si>
+    <t>Kumulos</t>
+  </si>
+  <si>
+    <t>Cabrio Top</t>
+  </si>
+  <si>
+    <t>Metil Tiofanato</t>
+  </si>
+  <si>
+    <t>Antrocol</t>
+  </si>
+  <si>
+    <t>Poly ram</t>
+  </si>
+  <si>
+    <t>Bioman</t>
+  </si>
+  <si>
+    <t>Aliette</t>
+  </si>
+  <si>
+    <t>SticK +</t>
+  </si>
+  <si>
+    <t>Ph Master</t>
+  </si>
+  <si>
+    <t>Imbire x</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>Xenic</t>
+  </si>
+  <si>
+    <t>Foley Rey</t>
+  </si>
+  <si>
+    <t>Diaznon</t>
+  </si>
+  <si>
+    <t>Clorban</t>
+  </si>
+  <si>
+    <t>Oxate</t>
+  </si>
+  <si>
+    <t>Monarca</t>
+  </si>
+  <si>
+    <t>Confidor</t>
+  </si>
+  <si>
+    <t>Direct plus</t>
+  </si>
+  <si>
+    <t>Nomolt</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>Exalt</t>
+  </si>
+  <si>
+    <t>Acaristop</t>
+  </si>
+  <si>
+    <t>Sivanto</t>
+  </si>
+  <si>
+    <t>Certero</t>
+  </si>
+  <si>
+    <t>Murralla Delta</t>
+  </si>
+  <si>
+    <t>Metralla</t>
+  </si>
+  <si>
+    <t>MIMLC</t>
+  </si>
+  <si>
+    <t>Ini mection</t>
+  </si>
+  <si>
+    <t>New Mection</t>
+  </si>
+  <si>
+    <t>Abaco</t>
+  </si>
+  <si>
+    <t>Lombardo</t>
+  </si>
+  <si>
+    <t>Hyperkill</t>
+  </si>
+  <si>
+    <t>Ciprometrina</t>
+  </si>
+  <si>
+    <t>CIPERKIL</t>
+  </si>
+  <si>
+    <t>Pyrimetha</t>
+  </si>
+  <si>
+    <t>Rimalation</t>
+  </si>
+  <si>
+    <t>Piraña</t>
+  </si>
+  <si>
+    <t>Tregua</t>
+  </si>
+  <si>
+    <t>Curyom</t>
+  </si>
+  <si>
+    <t>Pyton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decis 10 </t>
+  </si>
+  <si>
+    <t>Kun fu</t>
+  </si>
+  <si>
+    <t>Neem-x</t>
+  </si>
+  <si>
+    <t>Foliwin</t>
+  </si>
+  <si>
+    <t>Metomil</t>
+  </si>
+  <si>
+    <t>Ztaflor</t>
+  </si>
+  <si>
+    <t>Cereal I B</t>
+  </si>
+  <si>
+    <t>Ratifin</t>
+  </si>
+  <si>
+    <t>Brujula</t>
+  </si>
+  <si>
+    <t>Exterminador</t>
+  </si>
+  <si>
+    <t>Exterminador Comejen</t>
+  </si>
+  <si>
+    <t>Raid Max</t>
+  </si>
+  <si>
+    <t>Baygon Oko</t>
+  </si>
+  <si>
+    <t>Raid casa y Jardin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baygon Poder Mortal </t>
+  </si>
+  <si>
+    <t>Baygon ultra verde</t>
+  </si>
+  <si>
+    <t>Sompopicida</t>
+  </si>
+  <si>
+    <t>Clor pirifos</t>
+  </si>
+  <si>
+    <t>Clorpirifos 2.5</t>
+  </si>
+  <si>
+    <t>Terbufos</t>
+  </si>
+  <si>
+    <t>Milex-s</t>
+  </si>
+  <si>
+    <t>Marcial</t>
+  </si>
+  <si>
+    <t>Blindage</t>
+  </si>
+  <si>
+    <t>Defiende</t>
+  </si>
+  <si>
+    <t>Fuerte</t>
+  </si>
+  <si>
+    <t>Dique</t>
+  </si>
+  <si>
+    <t>Tratasem</t>
+  </si>
+  <si>
+    <t>Combi pro</t>
+  </si>
+  <si>
+    <t>Semerin</t>
+  </si>
+  <si>
+    <t>Inicio engorde</t>
+  </si>
+  <si>
+    <t>Engorde pollo</t>
+  </si>
+  <si>
+    <t>Impulsor Premiun</t>
+  </si>
+  <si>
+    <t>Final engorde</t>
+  </si>
+  <si>
+    <t>Traspatio</t>
+  </si>
+  <si>
+    <t>Campeon</t>
+  </si>
+  <si>
+    <t>Rufo</t>
+  </si>
+  <si>
+    <t>Alimax</t>
+  </si>
+  <si>
+    <t>Rufo cachorro</t>
+  </si>
+  <si>
+    <t>Doq Chips</t>
+  </si>
+  <si>
+    <t>Filete de pollo</t>
+  </si>
+  <si>
+    <t>Chat chip pescado</t>
+  </si>
+  <si>
+    <t>Chat chip Salmon</t>
+  </si>
+  <si>
+    <t>Gati pollo</t>
+  </si>
+  <si>
+    <t>Filete de atun</t>
+  </si>
+  <si>
+    <t>Sulfato Cadelga</t>
+  </si>
+  <si>
+    <t>Sulfato Fertica</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>16-16-0</t>
+  </si>
+  <si>
+    <t>16-20-0</t>
+  </si>
+  <si>
+    <t>15-15-20</t>
+  </si>
+  <si>
+    <t>0-0-60</t>
+  </si>
+  <si>
+    <t>18-46-0</t>
+  </si>
+  <si>
+    <t>12-24-12</t>
+  </si>
+  <si>
+    <t>Formula Maizera</t>
+  </si>
+  <si>
+    <t>BlauKorn</t>
+  </si>
+  <si>
+    <t>Novatec</t>
   </si>
 </sst>
 </file>
@@ -244,7 +652,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -317,12 +725,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -337,6 +778,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,12 +799,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -636,21 +1089,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BV16"/>
+  <dimension ref="B2:BN163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA9" sqref="BA9"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -660,37 +1113,39 @@
     <col min="21" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.28515625" customWidth="1"/>
-    <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="3" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2.85546875" customWidth="1"/>
+    <col min="40" max="40" width="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="2.85546875" customWidth="1"/>
-    <col min="48" max="48" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2.85546875" customWidth="1"/>
+    <col min="46" max="46" width="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="2.85546875" customWidth="1"/>
+    <col min="52" max="52" width="3" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="4.28515625" customWidth="1"/>
-    <col min="61" max="61" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="7" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="3" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -701,99 +1156,92 @@
     <col min="73" max="73" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="14"/>
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="K2" s="8" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="L2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="R2" s="8" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="S2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="9" t="s">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="12"/>
-      <c r="BC2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="10"/>
-      <c r="BL2" s="11"/>
-      <c r="BN2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8"/>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4"/>
-    </row>
-    <row r="3" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="14"/>
+      <c r="BF2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL2" s="17"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+    </row>
+    <row r="3" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -815,343 +1263,282 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="5"/>
+      <c r="Z3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="AJ3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="AP3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="BC3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="2" t="s">
+      <c r="BI3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="2" t="s">
+      <c r="BL3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA3" s="13"/>
-      <c r="BC3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="BE3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="BF3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="BG3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BQ3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:74" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="K4" s="1">
+      <c r="J4" s="1"/>
+      <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="1">
-        <v>35.5</v>
-      </c>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="S4" s="1">
         <v>1</v>
       </c>
-      <c r="R4" s="1">
+      <c r="T4" s="1"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="5"/>
+      <c r="Z4" s="1">
         <v>1</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4" s="5"/>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AG4" s="1">
+      <c r="AF4" s="1"/>
+      <c r="AH4" s="1">
         <v>1</v>
       </c>
-      <c r="AH4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>35.5</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>20</v>
-      </c>
-      <c r="AK4" s="1">
-        <f>AI4*AJ4</f>
-        <v>710</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="5"/>
       <c r="AO4" s="1">
         <v>1</v>
       </c>
       <c r="AP4" s="1"/>
-      <c r="AQ4" s="1">
-        <v>10</v>
-      </c>
+      <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="1">
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="1">
         <v>1</v>
       </c>
+      <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="5"/>
-      <c r="BC4" s="1">
+      <c r="BA4" s="1">
         <v>1</v>
       </c>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
+      <c r="BF4" s="1">
+        <v>1</v>
+      </c>
       <c r="BG4" s="1"/>
-      <c r="BI4" s="1">
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BK4">
         <v>1</v>
       </c>
-      <c r="BJ4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BK4" s="1"/>
-      <c r="BL4" s="1"/>
-      <c r="BN4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="1"/>
-      <c r="BP4" s="1"/>
-      <c r="BQ4" s="1"/>
-    </row>
-    <row r="5" spans="2:74" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
       <c r="I5" s="1"/>
-      <c r="K5" s="1">
+      <c r="J5" s="1"/>
+      <c r="L5" s="1">
         <v>2</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="R5" s="1">
+      <c r="Q5" s="1"/>
+      <c r="S5" s="1">
         <v>2</v>
       </c>
-      <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="1">
+      <c r="W5" s="1"/>
+      <c r="X5" s="5"/>
+      <c r="Z5" s="1">
         <v>2</v>
       </c>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AG5" s="1">
+      <c r="AF5" s="1"/>
+      <c r="AH5" s="1">
         <v>2</v>
       </c>
-      <c r="AH5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>25.75</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>10</v>
-      </c>
-      <c r="AK5" s="1">
-        <f t="shared" ref="AK5:AK15" si="0">AI5*AJ5</f>
-        <v>257.5</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>2</v>
-      </c>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
+      <c r="AN5" s="5"/>
       <c r="AO5" s="1">
         <v>2</v>
       </c>
@@ -1159,94 +1546,86 @@
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="1">
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="1">
         <v>2</v>
       </c>
+      <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="5"/>
-      <c r="BC5" s="1">
+      <c r="BA5" s="1">
         <v>2</v>
       </c>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
+      <c r="BF5" s="1">
+        <v>2</v>
+      </c>
       <c r="BG5" s="1"/>
-      <c r="BI5" s="1">
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BK5">
         <v>2</v>
       </c>
-      <c r="BJ5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
-      <c r="BN5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO5" s="1"/>
-      <c r="BP5" s="1"/>
-      <c r="BQ5" s="1"/>
-    </row>
-    <row r="6" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="BL5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="K6" s="1">
+      <c r="J6" s="1"/>
+      <c r="L6" s="1">
         <v>3</v>
       </c>
-      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="R6" s="1">
+      <c r="Q6" s="1"/>
+      <c r="S6" s="1">
         <v>3</v>
       </c>
-      <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="1">
+      <c r="W6" s="1"/>
+      <c r="X6" s="5"/>
+      <c r="Z6" s="1">
         <v>3</v>
       </c>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AG6" s="1">
+      <c r="AF6" s="1"/>
+      <c r="AH6" s="1">
         <v>3</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>3</v>
-      </c>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
+      <c r="AN6" s="5"/>
       <c r="AO6" s="1">
         <v>3</v>
       </c>
@@ -1254,90 +1633,86 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="1">
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="1">
         <v>3</v>
       </c>
+      <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="5"/>
-      <c r="BC6" s="1">
+      <c r="BA6" s="1">
         <v>3</v>
       </c>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
-      <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
+      <c r="BF6" s="1">
+        <v>3</v>
+      </c>
       <c r="BG6" s="1"/>
-      <c r="BI6" s="1">
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BK6">
         <v>3</v>
       </c>
-      <c r="BJ6" s="1"/>
-      <c r="BK6" s="1"/>
-      <c r="BL6" s="1"/>
-      <c r="BN6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BO6" s="1"/>
-      <c r="BP6" s="1"/>
-      <c r="BQ6" s="1"/>
-    </row>
-    <row r="7" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="BL6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
       <c r="I7" s="1"/>
-      <c r="K7" s="1">
+      <c r="J7" s="1"/>
+      <c r="L7" s="1">
         <v>4</v>
       </c>
-      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="R7" s="1">
+      <c r="Q7" s="1"/>
+      <c r="S7" s="1">
         <v>4</v>
       </c>
-      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="1">
+      <c r="W7" s="1"/>
+      <c r="X7" s="5"/>
+      <c r="Z7" s="1">
         <v>4</v>
       </c>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AG7" s="1">
+      <c r="AF7" s="1"/>
+      <c r="AH7" s="1">
         <v>4</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AK7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
+      <c r="AN7" s="5"/>
       <c r="AO7" s="1">
         <v>4</v>
       </c>
@@ -1345,88 +1720,83 @@
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="1">
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="1">
         <v>4</v>
       </c>
+      <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="5"/>
-      <c r="BC7" s="1">
+      <c r="BA7" s="1">
         <v>4</v>
       </c>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
+      <c r="BF7" s="1">
+        <v>4</v>
+      </c>
       <c r="BG7" s="1"/>
-      <c r="BI7" s="1">
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BK7">
         <v>4</v>
       </c>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
-      <c r="BL7" s="1"/>
-      <c r="BN7" s="1">
-        <v>4</v>
-      </c>
-      <c r="BO7" s="1"/>
-      <c r="BP7" s="1"/>
-      <c r="BQ7" s="1"/>
-    </row>
-    <row r="8" spans="2:74" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
       <c r="I8" s="1"/>
-      <c r="K8" s="1">
-        <v>5</v>
-      </c>
-      <c r="L8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="R8" s="1">
-        <v>5</v>
-      </c>
-      <c r="S8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="S8" s="1">
+        <v>5</v>
+      </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="5"/>
+      <c r="Z8" s="1">
+        <v>5</v>
+      </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AG8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>45</v>
+      <c r="AF8" s="1"/>
+      <c r="AH8" s="1">
+        <v>5</v>
       </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-      <c r="AK8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
+      <c r="AN8" s="5"/>
       <c r="AO8" s="1">
         <v>5</v>
       </c>
@@ -1434,88 +1804,83 @@
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="1">
-        <v>5</v>
-      </c>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="5"/>
-      <c r="BC8" s="1">
-        <v>5</v>
-      </c>
+      <c r="BA8" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
+      <c r="BF8" s="1">
+        <v>5</v>
+      </c>
       <c r="BG8" s="1"/>
-      <c r="BI8" s="1">
-        <v>5</v>
-      </c>
-      <c r="BJ8" s="1"/>
-      <c r="BK8" s="1"/>
-      <c r="BL8" s="1"/>
-      <c r="BN8" s="1">
-        <v>5</v>
-      </c>
-      <c r="BO8" s="1"/>
-      <c r="BP8" s="1"/>
-      <c r="BQ8" s="1"/>
-    </row>
-    <row r="9" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BK8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
-      <c r="K9" s="1">
+      <c r="J9" s="1"/>
+      <c r="L9" s="1">
         <v>6</v>
       </c>
-      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="R9" s="1">
+      <c r="Q9" s="1"/>
+      <c r="S9" s="1">
         <v>6</v>
       </c>
-      <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="1">
+      <c r="W9" s="1"/>
+      <c r="X9" s="5"/>
+      <c r="Z9" s="1">
         <v>6</v>
       </c>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-      <c r="AG9" s="1">
+      <c r="AF9" s="1"/>
+      <c r="AH9" s="1">
         <v>6</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
-      <c r="AK9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
+      <c r="AN9" s="5"/>
       <c r="AO9" s="1">
         <v>6</v>
       </c>
@@ -1523,88 +1888,83 @@
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="1">
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="1">
         <v>6</v>
       </c>
+      <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="5"/>
-      <c r="BC9" s="1">
+      <c r="BA9" s="1">
         <v>6</v>
       </c>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
+      <c r="BF9" s="1">
+        <v>6</v>
+      </c>
       <c r="BG9" s="1"/>
-      <c r="BI9" s="1">
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BK9">
         <v>6</v>
       </c>
-      <c r="BJ9" s="1"/>
-      <c r="BK9" s="1"/>
-      <c r="BL9" s="1"/>
-      <c r="BN9" s="1">
-        <v>6</v>
-      </c>
-      <c r="BO9" s="1"/>
-      <c r="BP9" s="1"/>
-      <c r="BQ9" s="1"/>
-    </row>
-    <row r="10" spans="2:74" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="K10" s="1">
+      <c r="J10" s="1"/>
+      <c r="L10" s="1">
         <v>7</v>
       </c>
-      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="R10" s="1">
+      <c r="Q10" s="1"/>
+      <c r="S10" s="1">
         <v>7</v>
       </c>
-      <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="1">
+      <c r="W10" s="1"/>
+      <c r="X10" s="5"/>
+      <c r="Z10" s="1">
         <v>7</v>
       </c>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-      <c r="AG10" s="1">
+      <c r="AF10" s="1"/>
+      <c r="AH10" s="1">
         <v>7</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
+      <c r="AN10" s="5"/>
       <c r="AO10" s="1">
         <v>7</v>
       </c>
@@ -1612,88 +1972,83 @@
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="1">
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="1">
         <v>7</v>
       </c>
+      <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="5"/>
-      <c r="BC10" s="1">
+      <c r="BA10" s="1">
         <v>7</v>
       </c>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
+      <c r="BF10" s="1">
+        <v>7</v>
+      </c>
       <c r="BG10" s="1"/>
-      <c r="BI10" s="1">
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BK10">
         <v>7</v>
       </c>
-      <c r="BJ10" s="1"/>
-      <c r="BK10" s="1"/>
-      <c r="BL10" s="1"/>
-      <c r="BN10" s="1">
-        <v>7</v>
-      </c>
-      <c r="BO10" s="1"/>
-      <c r="BP10" s="1"/>
-      <c r="BQ10" s="1"/>
-    </row>
-    <row r="11" spans="2:74" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="K11" s="1">
+      <c r="J11" s="1"/>
+      <c r="L11" s="1">
         <v>8</v>
       </c>
-      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="R11" s="1">
+      <c r="Q11" s="1"/>
+      <c r="S11" s="1">
         <v>8</v>
       </c>
-      <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="1">
+      <c r="W11" s="1"/>
+      <c r="X11" s="5"/>
+      <c r="Z11" s="1">
         <v>8</v>
       </c>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
-      <c r="AG11" s="1">
+      <c r="AF11" s="1"/>
+      <c r="AH11" s="1">
         <v>8</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
+      <c r="AN11" s="5"/>
       <c r="AO11" s="1">
         <v>8</v>
       </c>
@@ -1701,88 +2056,83 @@
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="1">
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="1">
         <v>8</v>
       </c>
+      <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="5"/>
-      <c r="BC11" s="1">
+      <c r="BA11" s="1">
         <v>8</v>
       </c>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
+      <c r="BF11" s="1">
+        <v>8</v>
+      </c>
       <c r="BG11" s="1"/>
-      <c r="BI11" s="1">
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BK11">
         <v>8</v>
       </c>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
-      <c r="BN11" s="1">
-        <v>8</v>
-      </c>
-      <c r="BO11" s="1"/>
-      <c r="BP11" s="1"/>
-      <c r="BQ11" s="1"/>
-    </row>
-    <row r="12" spans="2:74" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E12" s="1">
         <v>9</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="1"/>
-      <c r="K12" s="1">
+      <c r="J12" s="1"/>
+      <c r="L12" s="1">
         <v>9</v>
       </c>
-      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="R12" s="1">
+      <c r="Q12" s="1"/>
+      <c r="S12" s="1">
         <v>9</v>
       </c>
-      <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="1">
+      <c r="W12" s="1"/>
+      <c r="X12" s="5"/>
+      <c r="Z12" s="1">
         <v>9</v>
       </c>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-      <c r="AG12" s="1">
+      <c r="AF12" s="1"/>
+      <c r="AH12" s="1">
         <v>9</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
+      <c r="AN12" s="5"/>
       <c r="AO12" s="1">
         <v>9</v>
       </c>
@@ -1790,87 +2140,79 @@
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="1">
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="1">
         <v>9</v>
       </c>
+      <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="5"/>
-      <c r="BC12" s="1">
+      <c r="BA12" s="1">
         <v>9</v>
       </c>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
+      <c r="BF12" s="1">
+        <v>9</v>
+      </c>
       <c r="BG12" s="1"/>
-      <c r="BI12" s="1">
-        <v>9</v>
-      </c>
-      <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
-      <c r="BL12" s="1"/>
-      <c r="BN12" s="1">
-        <v>9</v>
-      </c>
-      <c r="BO12" s="1"/>
-      <c r="BP12" s="1"/>
-      <c r="BQ12" s="1"/>
-    </row>
-    <row r="13" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+    </row>
+    <row r="13" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
       <c r="I13" s="1"/>
-      <c r="K13" s="1">
+      <c r="J13" s="1"/>
+      <c r="L13" s="1">
         <v>10</v>
       </c>
-      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="R13" s="1">
+      <c r="Q13" s="1"/>
+      <c r="S13" s="1">
         <v>10</v>
       </c>
-      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="X13" s="1">
+      <c r="W13" s="1"/>
+      <c r="Z13" s="1">
         <v>10</v>
       </c>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-      <c r="AG13" s="1">
+      <c r="AF13" s="1"/>
+      <c r="AH13" s="1">
         <v>10</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
+      <c r="AN13" s="5"/>
       <c r="AO13" s="1">
         <v>10</v>
       </c>
@@ -1878,87 +2220,79 @@
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="1">
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="1">
         <v>10</v>
       </c>
+      <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="5"/>
-      <c r="BC13" s="1">
+      <c r="BA13" s="1">
         <v>10</v>
       </c>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
+      <c r="BF13" s="1">
+        <v>10</v>
+      </c>
       <c r="BG13" s="1"/>
-      <c r="BI13" s="1">
-        <v>10</v>
-      </c>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
-      <c r="BL13" s="1"/>
-      <c r="BN13" s="1">
-        <v>10</v>
-      </c>
-      <c r="BO13" s="1"/>
-      <c r="BP13" s="1"/>
-      <c r="BQ13" s="1"/>
-    </row>
-    <row r="14" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+    </row>
+    <row r="14" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" s="1">
         <v>11</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
       <c r="I14" s="1"/>
-      <c r="K14" s="1">
+      <c r="J14" s="1"/>
+      <c r="L14" s="1">
         <v>11</v>
       </c>
-      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="R14" s="1">
+      <c r="Q14" s="1"/>
+      <c r="S14" s="1">
         <v>11</v>
       </c>
-      <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="X14" s="1">
+      <c r="W14" s="1"/>
+      <c r="Z14" s="1">
         <v>11</v>
       </c>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-      <c r="AG14" s="1">
+      <c r="AF14" s="1"/>
+      <c r="AH14" s="1">
         <v>11</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
-      <c r="AK14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
+      <c r="AN14" s="5"/>
       <c r="AO14" s="1">
         <v>11</v>
       </c>
@@ -1966,87 +2300,79 @@
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="1">
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="1">
         <v>11</v>
       </c>
+      <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="5"/>
-      <c r="BC14" s="1">
+      <c r="BA14" s="1">
         <v>11</v>
       </c>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
       <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
+      <c r="BF14" s="1">
+        <v>11</v>
+      </c>
       <c r="BG14" s="1"/>
-      <c r="BI14" s="1">
-        <v>11</v>
-      </c>
-      <c r="BJ14" s="1"/>
-      <c r="BK14" s="1"/>
-      <c r="BL14" s="1"/>
-      <c r="BN14" s="1">
-        <v>11</v>
-      </c>
-      <c r="BO14" s="1"/>
-      <c r="BP14" s="1"/>
-      <c r="BQ14" s="1"/>
-    </row>
-    <row r="15" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+    </row>
+    <row r="15" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E15" s="1">
         <v>12</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
-      <c r="K15" s="1">
+      <c r="J15" s="1"/>
+      <c r="L15" s="1">
         <v>12</v>
       </c>
-      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="R15" s="1">
+      <c r="Q15" s="1"/>
+      <c r="S15" s="1">
         <v>12</v>
       </c>
-      <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="X15" s="1">
+      <c r="W15" s="1"/>
+      <c r="Z15" s="1">
         <v>12</v>
       </c>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
-      <c r="AG15" s="1">
+      <c r="AF15" s="1"/>
+      <c r="AH15" s="1">
         <v>12</v>
-      </c>
-      <c r="AH15" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
-      <c r="AK15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
+      <c r="AN15" s="5"/>
       <c r="AO15" s="1">
         <v>12</v>
       </c>
@@ -2054,56 +2380,2481 @@
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="1">
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="1">
         <v>12</v>
       </c>
+      <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="5"/>
-      <c r="BC15" s="1">
+      <c r="BA15" s="1">
         <v>12</v>
       </c>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
+      <c r="BF15" s="1">
+        <v>12</v>
+      </c>
       <c r="BG15" s="1"/>
-      <c r="BI15" s="1">
-        <v>12</v>
-      </c>
-      <c r="BJ15" s="1"/>
-      <c r="BK15" s="1"/>
-      <c r="BL15" s="1"/>
-      <c r="BN15" s="1">
-        <v>12</v>
-      </c>
-      <c r="BO15" s="1"/>
-      <c r="BP15" s="1"/>
-      <c r="BQ15" s="1"/>
-    </row>
-    <row r="16" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="AH16" s="5"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+    </row>
+    <row r="16" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B16" s="19">
+        <v>13</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="1">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="E18" s="1">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="E19" s="1">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="E20" s="1">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="E21" s="1">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="E22" s="1">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="E23" s="1">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="E24" s="1">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="E25" s="1">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="E26" s="1">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="E27" s="1">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="E28" s="1">
+        <v>25</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="E29" s="1">
+        <v>26</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="E30" s="1">
+        <v>27</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="E31" s="1">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="E32" s="1">
+        <v>29</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="E33" s="1">
+        <v>30</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="E34" s="1">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="E35" s="1">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="E36" s="1">
+        <v>33</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="E37" s="1">
+        <v>34</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="E38" s="1">
+        <v>35</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="E39" s="1">
+        <v>36</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="E40" s="1">
+        <v>37</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="E41" s="1">
+        <v>38</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="E42" s="1">
+        <v>39</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="E43" s="1">
+        <v>40</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="E44" s="1">
+        <v>41</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1">
+        <v>3</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="E45" s="1">
+        <v>42</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="1">
+        <v>43</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="E47" s="1">
+        <v>44</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1">
+        <v>3</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="E48" s="1">
+        <v>45</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="E49" s="1">
+        <v>46</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="E50" s="1">
+        <v>47</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1">
+        <v>3</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="E51" s="18">
+        <v>48</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1">
+        <v>3</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="E52" s="18">
+        <v>49</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1">
+        <v>3</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="E53" s="18">
+        <v>50</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1">
+        <v>3</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="E54" s="18">
+        <v>51</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1">
+        <v>3</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="E55" s="18">
+        <v>52</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1">
+        <v>3</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="E56" s="18">
+        <v>53</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1">
+        <v>3</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="E57" s="18">
+        <v>54</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1">
+        <v>3</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="E58" s="18">
+        <v>55</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1">
+        <v>3</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="E59" s="18">
+        <v>56</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1">
+        <v>3</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="E60" s="18">
+        <v>57</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1">
+        <v>3</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="E61" s="18">
+        <v>58</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1">
+        <v>4</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="E62" s="18">
+        <v>59</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1">
+        <v>4</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="E63" s="18">
+        <v>60</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1">
+        <v>4</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="E64" s="18">
+        <v>61</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1">
+        <v>4</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="E65" s="18">
+        <v>62</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1">
+        <v>4</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="E66" s="18">
+        <v>63</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="E67" s="18">
+        <v>64</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1">
+        <v>5</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="E68" s="18">
+        <v>65</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1">
+        <v>5</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="E69" s="18">
+        <v>66</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1">
+        <v>5</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="E70" s="18">
+        <v>67</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1">
+        <v>5</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="E71" s="18">
+        <v>68</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1">
+        <v>5</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="E72" s="18">
+        <v>69</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1">
+        <v>5</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="E73" s="18">
+        <v>70</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1">
+        <v>5</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="E74" s="1">
+        <v>71</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1">
+        <v>5</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="E75" s="1">
+        <v>72</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1">
+        <v>5</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="E76" s="1">
+        <v>73</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1">
+        <v>5</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="E77" s="1">
+        <v>74</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1">
+        <v>5</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="E78" s="1">
+        <v>75</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1">
+        <v>5</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="E79" s="1">
+        <v>76</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1">
+        <v>5</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="E80" s="1">
+        <v>77</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1">
+        <v>5</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="E81" s="1">
+        <v>78</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1">
+        <v>5</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="E82" s="1">
+        <v>79</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1">
+        <v>5</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="E83" s="1">
+        <v>80</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1">
+        <v>5</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="E84" s="1">
+        <v>81</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1">
+        <v>5</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="E85" s="1">
+        <v>82</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1">
+        <v>5</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="E86" s="1">
+        <v>83</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1">
+        <v>5</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="E87" s="1">
+        <v>84</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1">
+        <v>5</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="E88" s="1">
+        <v>85</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1">
+        <v>5</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="E89" s="1">
+        <v>86</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1">
+        <v>5</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="E90" s="1">
+        <v>87</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1">
+        <v>5</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="E91" s="1">
+        <v>88</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1">
+        <v>5</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="E92" s="1">
+        <v>89</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1">
+        <v>5</v>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="E93" s="1">
+        <v>90</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1">
+        <v>5</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="E94" s="1">
+        <v>91</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1">
+        <v>5</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="E95" s="1">
+        <v>92</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1">
+        <v>5</v>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="E96" s="1">
+        <v>93</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1">
+        <v>5</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="E97" s="1">
+        <v>94</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1">
+        <v>5</v>
+      </c>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="E98" s="1">
+        <v>95</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1">
+        <v>5</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="E99" s="1">
+        <v>94</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1">
+        <v>5</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="E100" s="1">
+        <v>97</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1">
+        <v>5</v>
+      </c>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="E101" s="1">
+        <v>98</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1">
+        <v>5</v>
+      </c>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="E102" s="1">
+        <v>99</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1">
+        <v>5</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="E103" s="1">
+        <v>100</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1">
+        <v>5</v>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="E104" s="1">
+        <v>101</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1">
+        <v>5</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="E105" s="1">
+        <v>102</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1">
+        <v>5</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E106" s="1">
+        <v>103</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1">
+        <v>5</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E107" s="1">
+        <v>104</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1">
+        <v>5</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E108" s="1">
+        <v>105</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1">
+        <v>5</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E109" s="1">
+        <v>106</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1">
+        <v>5</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E110" s="1">
+        <v>107</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1">
+        <v>5</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E111" s="1">
+        <v>108</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1">
+        <v>5</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E112" s="1">
+        <v>109</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1">
+        <v>5</v>
+      </c>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E113" s="1">
+        <v>110</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1">
+        <v>5</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E114" s="1">
+        <v>111</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1">
+        <v>5</v>
+      </c>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E115" s="1">
+        <v>112</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1">
+        <v>5</v>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E116" s="1">
+        <v>113</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1">
+        <v>6</v>
+      </c>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E117" s="1">
+        <v>114</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1">
+        <v>6</v>
+      </c>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E118" s="1">
+        <v>115</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1">
+        <v>6</v>
+      </c>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E119" s="1">
+        <v>116</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1">
+        <v>6</v>
+      </c>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E120" s="1">
+        <v>117</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1">
+        <v>6</v>
+      </c>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E121" s="1">
+        <v>118</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1">
+        <v>6</v>
+      </c>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E122" s="1">
+        <v>119</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1">
+        <v>6</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E123" s="1">
+        <v>120</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1">
+        <v>6</v>
+      </c>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E124" s="1">
+        <v>121</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1">
+        <v>7</v>
+      </c>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E125" s="1">
+        <v>122</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1">
+        <v>7</v>
+      </c>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E126" s="1">
+        <v>123</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1">
+        <v>7</v>
+      </c>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E127" s="1">
+        <v>124</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1">
+        <v>7</v>
+      </c>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E128" s="1">
+        <v>125</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1">
+        <v>7</v>
+      </c>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E129" s="1">
+        <v>126</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1">
+        <v>7</v>
+      </c>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E130" s="1">
+        <v>127</v>
+      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1">
+        <v>8</v>
+      </c>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E131" s="1">
+        <v>128</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1">
+        <v>8</v>
+      </c>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E132" s="1">
+        <v>129</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1">
+        <v>8</v>
+      </c>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E133" s="1">
+        <v>130</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1">
+        <v>8</v>
+      </c>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E134" s="1">
+        <v>131</v>
+      </c>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1">
+        <v>8</v>
+      </c>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E135" s="1">
+        <v>132</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1">
+        <v>8</v>
+      </c>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E136" s="1">
+        <v>133</v>
+      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1">
+        <v>8</v>
+      </c>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E137" s="1">
+        <v>134</v>
+      </c>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1">
+        <v>8</v>
+      </c>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E138" s="1">
+        <v>135</v>
+      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1">
+        <v>8</v>
+      </c>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E139" s="1">
+        <v>136</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1">
+        <v>9</v>
+      </c>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E140" s="1">
+        <v>137</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1">
+        <v>9</v>
+      </c>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E141" s="1">
+        <v>138</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1">
+        <v>9</v>
+      </c>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E142" s="1">
+        <v>139</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1">
+        <v>9</v>
+      </c>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E143" s="1">
+        <v>140</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1">
+        <v>9</v>
+      </c>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E144" s="1">
+        <v>141</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1">
+        <v>9</v>
+      </c>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E145" s="1">
+        <v>142</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1">
+        <v>10</v>
+      </c>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E146" s="1">
+        <v>143</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1">
+        <v>10</v>
+      </c>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E147" s="1">
+        <v>144</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1">
+        <v>10</v>
+      </c>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E148" s="1">
+        <v>145</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1">
+        <v>10</v>
+      </c>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E149" s="1">
+        <v>146</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1">
+        <v>11</v>
+      </c>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E150" s="1">
+        <v>147</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1">
+        <v>11</v>
+      </c>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E151" s="18">
+        <v>148</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1">
+        <v>11</v>
+      </c>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E152" s="18">
+        <v>149</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1">
+        <v>11</v>
+      </c>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+    </row>
+    <row r="153" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E153" s="18">
+        <v>150</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1">
+        <v>11</v>
+      </c>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+    </row>
+    <row r="154" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E154" s="18">
+        <v>151</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1">
+        <v>11</v>
+      </c>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+    </row>
+    <row r="155" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E155" s="18">
+        <v>152</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1">
+        <v>11</v>
+      </c>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E156" s="18">
+        <v>153</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1">
+        <v>11</v>
+      </c>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E157" s="18">
+        <v>154</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1">
+        <v>11</v>
+      </c>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E158" s="18">
+        <v>155</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1">
+        <v>11</v>
+      </c>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+    </row>
+    <row r="159" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E159" s="18">
+        <v>156</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1">
+        <v>11</v>
+      </c>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E160" s="18">
+        <v>157</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1">
+        <v>11</v>
+      </c>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E161" s="18">
+        <v>158</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1">
+        <v>11</v>
+      </c>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E162" s="18">
+        <v>159</v>
+      </c>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+    </row>
+    <row r="163" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E163" s="18">
+        <v>160</v>
+      </c>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="BN2:BQ2"/>
-    <mergeCell ref="BI2:BL2"/>
+  <mergeCells count="10">
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BF2:BI2"/>
+    <mergeCell ref="BA2:BD2"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="X2:AE2"/>
-    <mergeCell ref="AG2:AM2"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="AO2:AT2"/>
-    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AH2:AM2"/>
+    <mergeCell ref="AO2:AS2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="T4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pruebas de escritorio de la base de datos.xlsx
+++ b/Pruebas de escritorio de la base de datos.xlsx
@@ -763,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -799,6 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BN163"/>
+  <dimension ref="B2:BN202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I145" sqref="I145"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,14 +1162,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
       <c r="L2" s="11" t="s">
         <v>7</v>
       </c>
@@ -1234,10 +1235,10 @@
       <c r="BH2" s="11"/>
       <c r="BI2" s="11"/>
       <c r="BJ2" s="4"/>
-      <c r="BK2" s="17" t="s">
+      <c r="BK2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="BL2" s="17"/>
+      <c r="BL2" s="18"/>
       <c r="BM2" s="4"/>
       <c r="BN2" s="4"/>
     </row>
@@ -1263,7 +1264,7 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="17" t="s">
         <v>91</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -2402,10 +2403,10 @@
       <c r="BI15" s="1"/>
     </row>
     <row r="16" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <v>13</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="1">
@@ -3179,10 +3180,10 @@
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="E51" s="18">
+      <c r="E51" s="19">
         <v>48</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="19" t="s">
         <v>99</v>
       </c>
       <c r="G51" s="1"/>
@@ -3195,10 +3196,10 @@
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="E52" s="18">
+      <c r="E52" s="19">
         <v>49</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="19" t="s">
         <v>100</v>
       </c>
       <c r="G52" s="1"/>
@@ -3211,10 +3212,10 @@
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="E53" s="18">
+      <c r="E53" s="19">
         <v>50</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="19" t="s">
         <v>101</v>
       </c>
       <c r="G53" s="1"/>
@@ -3227,10 +3228,10 @@
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="E54" s="18">
+      <c r="E54" s="19">
         <v>51</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="19" t="s">
         <v>102</v>
       </c>
       <c r="G54" s="1"/>
@@ -3243,10 +3244,10 @@
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="E55" s="18">
+      <c r="E55" s="19">
         <v>52</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="19" t="s">
         <v>103</v>
       </c>
       <c r="G55" s="1"/>
@@ -3259,10 +3260,10 @@
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="E56" s="18">
+      <c r="E56" s="19">
         <v>53</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="19" t="s">
         <v>104</v>
       </c>
       <c r="G56" s="1"/>
@@ -3275,10 +3276,10 @@
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="E57" s="18">
+      <c r="E57" s="19">
         <v>54</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="19" t="s">
         <v>105</v>
       </c>
       <c r="G57" s="1"/>
@@ -3291,10 +3292,10 @@
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="E58" s="18">
+      <c r="E58" s="19">
         <v>55</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="19" t="s">
         <v>106</v>
       </c>
       <c r="G58" s="1"/>
@@ -3307,10 +3308,10 @@
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="E59" s="18">
+      <c r="E59" s="19">
         <v>56</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="19" t="s">
         <v>107</v>
       </c>
       <c r="G59" s="1"/>
@@ -3323,10 +3324,10 @@
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="E60" s="18">
+      <c r="E60" s="19">
         <v>57</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="19" t="s">
         <v>108</v>
       </c>
       <c r="G60" s="1"/>
@@ -3339,7 +3340,7 @@
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="E61" s="18">
+      <c r="E61" s="19">
         <v>58</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -3355,7 +3356,7 @@
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="E62" s="18">
+      <c r="E62" s="19">
         <v>59</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -3371,7 +3372,7 @@
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="E63" s="18">
+      <c r="E63" s="19">
         <v>60</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -3387,7 +3388,7 @@
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="E64" s="18">
+      <c r="E64" s="19">
         <v>61</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -3403,7 +3404,7 @@
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="E65" s="18">
+      <c r="E65" s="19">
         <v>62</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -3419,7 +3420,7 @@
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="E66" s="18">
+      <c r="E66" s="19">
         <v>63</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -3435,7 +3436,7 @@
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="E67" s="18">
+      <c r="E67" s="19">
         <v>64</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -3451,7 +3452,7 @@
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="E68" s="18">
+      <c r="E68" s="19">
         <v>65</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -3467,7 +3468,7 @@
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="E69" s="18">
+      <c r="E69" s="19">
         <v>66</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -3483,7 +3484,7 @@
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="E70" s="18">
+      <c r="E70" s="19">
         <v>67</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -3499,7 +3500,7 @@
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="E71" s="18">
+      <c r="E71" s="19">
         <v>68</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -3515,7 +3516,7 @@
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="E72" s="18">
+      <c r="E72" s="19">
         <v>69</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -3531,7 +3532,7 @@
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="E73" s="18">
+      <c r="E73" s="19">
         <v>70</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -4669,7 +4670,7 @@
       <c r="J150" s="1"/>
     </row>
     <row r="151" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E151" s="18">
+      <c r="E151" s="19">
         <v>148</v>
       </c>
       <c r="F151" s="1" t="s">
@@ -4683,7 +4684,7 @@
       <c r="J151" s="1"/>
     </row>
     <row r="152" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E152" s="18">
+      <c r="E152" s="19">
         <v>149</v>
       </c>
       <c r="F152" s="1" t="s">
@@ -4697,7 +4698,7 @@
       <c r="J152" s="1"/>
     </row>
     <row r="153" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E153" s="18">
+      <c r="E153" s="19">
         <v>150</v>
       </c>
       <c r="F153" s="1" t="s">
@@ -4711,7 +4712,7 @@
       <c r="J153" s="1"/>
     </row>
     <row r="154" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E154" s="18">
+      <c r="E154" s="19">
         <v>151</v>
       </c>
       <c r="F154" s="1" t="s">
@@ -4725,7 +4726,7 @@
       <c r="J154" s="1"/>
     </row>
     <row r="155" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E155" s="18">
+      <c r="E155" s="19">
         <v>152</v>
       </c>
       <c r="F155" s="1" t="s">
@@ -4739,7 +4740,7 @@
       <c r="J155" s="1"/>
     </row>
     <row r="156" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E156" s="18">
+      <c r="E156" s="19">
         <v>153</v>
       </c>
       <c r="F156" s="1" t="s">
@@ -4753,7 +4754,7 @@
       <c r="J156" s="1"/>
     </row>
     <row r="157" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E157" s="18">
+      <c r="E157" s="19">
         <v>154</v>
       </c>
       <c r="F157" s="1" t="s">
@@ -4767,7 +4768,7 @@
       <c r="J157" s="1"/>
     </row>
     <row r="158" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E158" s="18">
+      <c r="E158" s="19">
         <v>155</v>
       </c>
       <c r="F158" s="1" t="s">
@@ -4781,7 +4782,7 @@
       <c r="J158" s="1"/>
     </row>
     <row r="159" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E159" s="18">
+      <c r="E159" s="19">
         <v>156</v>
       </c>
       <c r="F159" s="1" t="s">
@@ -4795,7 +4796,7 @@
       <c r="J159" s="1"/>
     </row>
     <row r="160" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E160" s="18">
+      <c r="E160" s="19">
         <v>157</v>
       </c>
       <c r="F160" s="1" t="s">
@@ -4809,7 +4810,7 @@
       <c r="J160" s="1"/>
     </row>
     <row r="161" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E161" s="18">
+      <c r="E161" s="19">
         <v>158</v>
       </c>
       <c r="F161" s="1" t="s">
@@ -4823,7 +4824,7 @@
       <c r="J161" s="1"/>
     </row>
     <row r="162" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E162" s="18">
+      <c r="E162" s="19">
         <v>159</v>
       </c>
       <c r="F162" s="1"/>
@@ -4833,7 +4834,7 @@
       <c r="J162" s="1"/>
     </row>
     <row r="163" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E163" s="18">
+      <c r="E163" s="19">
         <v>160</v>
       </c>
       <c r="F163" s="1"/>
@@ -4841,6 +4842,201 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
+    </row>
+    <row r="164" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E164" s="15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E165" s="15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E166" s="15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E167" s="15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E168" s="15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E169" s="15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E170" s="15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E171" s="15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E172" s="15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E173" s="15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E174" s="15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E175" s="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E176" s="15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E177" s="15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E178" s="15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E179" s="15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E180" s="15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E181" s="15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E182" s="15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E183" s="15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E184" s="15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E185" s="15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E186" s="15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E187" s="15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E188" s="15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E189" s="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E190" s="15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E191" s="15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E192" s="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E193" s="15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E194" s="15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E195" s="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E196" s="15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E197" s="15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E198" s="15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E199" s="15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E200" s="15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E201" s="15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E202" s="15">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
